--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/treemap_혼합음료 제조사 제품 성분/제품 성분.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/treemap_혼합음료 제조사 제품 성분/제품 성분.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\분석_그래프\혼합음료 제조사 정보\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\treemap_혼합음료 제조사 제품 성분\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1393,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FR237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="D229" sqref="D229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
